--- a/jpcore-r4/feature/swg5-add_medication_statement/CodeSystem-jp-procedure-reason-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_medication_statement/CodeSystem-jp-procedure-reason-cs.xlsx
@@ -77,7 +77,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>
